--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A+清洁分切日报表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A+清洁分切日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>SOP-MFG-302-R04A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物料种类：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清洁分切日报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,37 +615,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">LDPE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  TY □   TK8 □    UP1 □</t>
-    </r>
+    <t>物料种类：  LDPE □  TY □   TK8 □    UP1 □</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -727,19 +701,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -915,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,134 +944,128 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1422,7 +1377,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="9" customWidth="1"/>
@@ -1434,7 +1389,7 @@
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="24.2" customHeight="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1451,41 +1406,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="37.5" customHeight="1">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1471,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1">
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1531,7 +1486,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="24.75" customHeight="1">
+    <row r="6" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1546,7 +1501,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="24.75" customHeight="1">
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1561,7 +1516,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1576,7 +1531,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="24.75" customHeight="1">
+    <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -1591,7 +1546,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="24.75" customHeight="1">
+    <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -1606,7 +1561,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1621,7 +1576,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="24.75" customHeight="1">
+    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -1636,22 +1591,22 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="21" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="28.5" customHeight="1">
+    <row r="14" spans="1:11" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1688,22 +1643,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1727,10 +1682,10 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" style="23" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="23" customWidth="1"/>
@@ -1745,7 +1700,7 @@
     <col min="15" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="24.2" customHeight="1">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1765,45 +1720,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" s="30" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:14" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:14" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1841,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="M4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1855,29 +1808,29 @@
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>43</v>
+      <c r="G5" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>44</v>
+      <c r="K5" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="24.75" customHeight="1">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1895,7 +1848,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1913,7 +1866,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1931,7 +1884,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="24.75" customHeight="1">
+    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -1949,7 +1902,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="24.75" customHeight="1">
+    <row r="10" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -1967,7 +1920,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="24.75" customHeight="1">
+    <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1985,7 +1938,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="24.75" customHeight="1">
+    <row r="12" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -2003,109 +1956,110 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="31" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="57"/>
+      <c r="J13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="26" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="H16:N16"/>
+    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2120,7 +2074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A+清洁分切日报表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R04A+清洁分切日报表.xlsx
@@ -2064,7 +2064,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.48" right="0.25" top="0.93" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
